--- a/test_result_main_info.xlsx
+++ b/test_result_main_info.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="glass5_main_metrix_info" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,8 +429,8 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -15514,7 +15514,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -15527,8 +15527,8 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -21293,40 +21293,40 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.6984109115816433</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.6345742501022004</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.7854166666666667</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>0.8639476129216697</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>0.9015151515151515</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>0.8011363636363635</v>
       </c>
     </row>
     <row r="75">
@@ -21371,40 +21371,40 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.7122030014067801</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.638998687194176</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.8100378787878789</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>0.8762567895940538</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>0.9185606060606061</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.7992424242424242</v>
       </c>
     </row>
     <row r="76">
@@ -21449,40 +21449,40 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.7156554360903262</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.6319578078157984</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>0.828598484848485</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>0.8840233704974271</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>0.9147727272727273</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>0.8276515151515151</v>
       </c>
     </row>
     <row r="77">
@@ -21527,40 +21527,40 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.7135272924746608</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.6171289244512999</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>0.847159090909091</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>0.8910309462550028</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>0.9422348484848486</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>0.8238636363636364</v>
       </c>
     </row>
     <row r="78">
@@ -21605,40 +21605,40 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.6835443037974684</v>
+        <v>0.7287220335494494</v>
       </c>
       <c r="J78" t="n">
-        <v>0.6835443037974684</v>
+        <v>0.8</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6835443037974684</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="L78" t="n">
-        <v>0.574468085106383</v>
+        <v>0.6208681807598155</v>
       </c>
       <c r="M78" t="n">
-        <v>0.574468085106383</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N78" t="n">
-        <v>0.574468085106383</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="O78" t="n">
-        <v>0.84375</v>
+        <v>0.8839015151515153</v>
       </c>
       <c r="P78" t="n">
-        <v>0.84375</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.84375</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="R78" t="n">
-        <v>0.8841391509433962</v>
+        <v>0.9086460120068611</v>
       </c>
       <c r="S78" t="n">
-        <v>0.8841391509433962</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="T78" t="n">
-        <v>0.8841391509433962</v>
+        <v>0.8390151515151515</v>
       </c>
     </row>
     <row r="79">
@@ -21761,40 +21761,40 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.6680480230379061</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.6813379516604817</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.6744318181818182</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.816406875357347</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>0.8787878787878789</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>0.7518939393939394</v>
       </c>
     </row>
     <row r="81">
@@ -21839,40 +21839,40 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.6924819549719464</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.6794438307379043</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>0.7178030303030304</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>0.8369532590051458</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>0.8958333333333335</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>0.7746212121212122</v>
       </c>
     </row>
     <row r="82">
@@ -21917,40 +21917,40 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.7136559549099305</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.619718309859155</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.6898108602034945</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>0.7490530303030303</v>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>0.8525782590051458</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>0.8935731132075472</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="83">
@@ -21995,40 +21995,40 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.7213095993377683</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>0.619718309859155</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.6905080884028253</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.7613636363636364</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>0.8587349914236706</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>0.8929924242424242</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="84">
@@ -22073,40 +22073,40 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.7427871043244998</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>0.8059701492537314</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.7252611855553031</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>0.7674242424242425</v>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>0.8651686678101772</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>0.9067234848484849</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>0.8106060606060606</v>
       </c>
     </row>
     <row r="85">
@@ -22151,40 +22151,40 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.7753009888614829</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.7947619047619048</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>0.7613636363636365</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>0.868193253287593</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>0.9067806603773585</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.7840909090909091</v>
       </c>
     </row>
     <row r="86">
@@ -22229,40 +22229,40 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.6927362292879534</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.6765646175529897</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>0.7236742424242425</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>0.8391355774728415</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>0.8825757575757576</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>0.7784090909090909</v>
       </c>
     </row>
     <row r="87">
@@ -22307,40 +22307,40 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.7126441918664632</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.67682973439071</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>0.7607954545454546</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>0.8569357489994284</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>0.8920454545454546</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.8049242424242424</v>
       </c>
     </row>
     <row r="88">
@@ -22385,40 +22385,40 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.716524233779397</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.6646650450998276</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>0.7856060606060606</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>0.8674485420240139</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>0.9071969696969697</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>0.8011363636363635</v>
       </c>
     </row>
     <row r="89">
@@ -22463,40 +22463,40 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.73154682318769</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>0.6216216216216217</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.6713870411431386</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>0.8102272727272727</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>0.8797591480846199</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>0.8143939393939394</v>
       </c>
     </row>
     <row r="90">
@@ -22541,40 +22541,40 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.7538322324625943</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.6898523273352274</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>0.8348484848484847</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>0.8939622641509436</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>0.9341856060606062</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>0.8352272727272728</v>
       </c>
     </row>
     <row r="91">
@@ -22619,40 +22619,40 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.7606743161672739</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.6888580654538101</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>0.853219696969697</v>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>0.9027676529445398</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>0.956439393939394</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>0.821969696969697</v>
       </c>
     </row>
     <row r="92">
@@ -23087,40 +23087,40 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.7098484848484848</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>0.7660984848484849</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>0.8635095054316753</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>0.8977272727272729</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>0.7954545454545454</v>
       </c>
     </row>
     <row r="98">
@@ -23165,40 +23165,40 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.7037404321614847</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.6581163731067381</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>0.7606060606060607</v>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>0.8553230417381361</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>0.8825757575757577</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>0.821969696969697</v>
       </c>
     </row>
     <row r="99">
@@ -23243,40 +23243,40 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.7151605338539917</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>0.8115942028985507</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>0.6490165718753353</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>0.7981060606060607</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>0.8721805317324186</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>0.9204545454545454</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>0.821969696969697</v>
       </c>
     </row>
     <row r="100">
@@ -23321,40 +23321,40 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.7118201098482788</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>0.619718309859155</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>0.6250682799842935</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>0.8289772727272726</v>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>0.8838325471698113</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>0.9460227272727274</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="101">
@@ -23399,40 +23399,40 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.713077110217091</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>0.619718309859155</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.6177772093804296</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>0.8473484848484848</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>0.96875</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>0.8915044311034876</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>0.9540719696969697</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="102">
@@ -23945,40 +23945,40 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>0.692833086250808</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>0.6216216216216217</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>0.608639961779557</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>0.8065025252525254</v>
       </c>
       <c r="P108" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>0.8711019392033544</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>0.9147727272727274</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>0.8143939393939394</v>
       </c>
     </row>
     <row r="109">
@@ -24023,40 +24023,40 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>0.771579145492189</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>0.7255034340560657</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>0.8287878787878789</v>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>0.8947126929674099</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>0.9379734848484849</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>0.8238636363636364</v>
       </c>
     </row>
     <row r="110">
@@ -24101,40 +24101,40 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>0.7045762308675204</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>0.7145503670793208</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>0.6988636363636364</v>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>0.8316416523727843</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>0.8844696969696969</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>0.793560606060606</v>
       </c>
     </row>
     <row r="111">
@@ -24179,40 +24179,40 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>0.72518746982641</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>0.7289642997801917</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>0.7238636363636364</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>0.8448992281303601</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>0.8844696969696969</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>0.7954545454545454</v>
       </c>
     </row>
     <row r="112">
@@ -24257,40 +24257,40 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.7288391376451078</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>0.7321336996336996</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>0.7301136363636364</v>
       </c>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>0.8480270869068038</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>0.8825757575757576</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>0.8011363636363636</v>
       </c>
     </row>
     <row r="113">
@@ -24335,40 +24335,40 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>0.7351783004404833</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>0.7868852459016394</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>0.7386291958385134</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="P113" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>0.8515294453973699</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>0.8674242424242424</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>0.8162878787878788</v>
       </c>
     </row>
     <row r="114">
@@ -24569,40 +24569,40 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>0.70088878693336</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>0.6770253467240556</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="O116" t="n">
-        <v>0</v>
+        <v>0.7299242424242424</v>
       </c>
       <c r="P116" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>0.84301243567753</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>0.793560606060606</v>
       </c>
     </row>
     <row r="117">
@@ -24647,40 +24647,40 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>0.6652869352869353</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>0.7670454545454547</v>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>0.8593003144654088</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>0.8863636363636365</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>0.8238636363636364</v>
       </c>
     </row>
     <row r="118">
@@ -24725,40 +24725,40 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>0.7339219018698253</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>0.6376811594202899</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>0.6757555357555358</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>0.8041666666666668</v>
       </c>
       <c r="P118" t="n">
-        <v>0</v>
+        <v>0.90625</v>
       </c>
       <c r="Q118" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>0.8782397084048028</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>0.9379734848484849</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>0.8068181818181818</v>
       </c>
     </row>
     <row r="119">
@@ -24803,40 +24803,40 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>0.7299042608790475</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>0.6583415732805976</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>0.8225378787878789</v>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>0.90625</v>
       </c>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R119" t="n">
-        <v>0</v>
+        <v>0.8847695111492282</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>0.9303977272727273</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>0.8049242424242424</v>
       </c>
     </row>
     <row r="120">
@@ -24881,40 +24881,40 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>0.7470444257598369</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>0.8358208955223881</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>0.6478873239436619</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>0.6818689581095596</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>0.834659090909091</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>0.8923552744425386</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>0.9356060606060608</v>
       </c>
       <c r="T120" t="n">
-        <v>0</v>
+        <v>0.8200757575757576</v>
       </c>
     </row>
     <row r="121">
@@ -24959,40 +24959,40 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>0.780748247915767</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.7425912003331359</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>0.8287878787878789</v>
       </c>
       <c r="P121" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>0.8962264150943395</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>0.9398674242424242</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>0.8257575757575758</v>
       </c>
     </row>
     <row r="122">
@@ -25037,40 +25037,40 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.3206590884765882</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>0.378698224852071</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>0.1917902112200466</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>0.2335766423357664</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>0.9878787878787879</v>
       </c>
       <c r="P122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>0.7331832475700402</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>0.8011363636363636</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>0.6981132075471699</v>
       </c>
     </row>
     <row r="123">
@@ -25115,40 +25115,40 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>0.3434631933425716</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>0.3950617283950618</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>0.3137254901960785</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>0.2079773922260406</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>0.7604273870783305</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>0.8143939393939394</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>0.7329545454545454</v>
       </c>
     </row>
     <row r="124">
@@ -25193,40 +25193,40 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>0.3734124979303142</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>0.336734693877551</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>0.2302885714612788</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="P124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>0.7895654659805603</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>0.7537878787878788</v>
       </c>
     </row>
     <row r="125">
@@ -25271,40 +25271,40 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.3662223599845617</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>0.2252958524473318</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>0.2481203007518797</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>0.9878787878787879</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>0.7812349914236706</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>0.8106060606060606</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>0.7329545454545454</v>
       </c>
     </row>
     <row r="126">
@@ -25349,40 +25349,40 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>0.351923384957473</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>0.21451871432447</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>0.2519083969465649</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>0.766852487135506</v>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>0.8143939393939394</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>0.6931818181818181</v>
       </c>
     </row>
     <row r="127">
@@ -25505,40 +25505,40 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>0.08110275689223058</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="P128" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>0.5189408233276158</v>
       </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>0.5511363636363636</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>0.490530303030303</v>
       </c>
     </row>
     <row r="129">
@@ -25583,40 +25583,40 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>0.1053425518541798</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>0.2636363636363637</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>0.06837121212121212</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>0.28125</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>0</v>
+        <v>0.5311567324185249</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>0.6368371212121212</v>
       </c>
       <c r="T129" t="n">
-        <v>0</v>
+        <v>0.4943181818181818</v>
       </c>
     </row>
     <row r="130">
@@ -25661,40 +25661,40 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.1976045883940621</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>0.5741666666666666</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>0.1295454545454545</v>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>0.34375</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="R130" t="n">
-        <v>0</v>
+        <v>0.5598527730131504</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>0.6624053030303031</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>0.5099646226415094</v>
       </c>
     </row>
     <row r="131">
@@ -25739,40 +25739,40 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>0.1784313725490196</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>0.1107954545454545</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>0.5519900657518582</v>
       </c>
       <c r="S131" t="n">
-        <v>0</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>0.5113636363636364</v>
       </c>
     </row>
     <row r="132">
@@ -25817,40 +25817,40 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.2757610376333781</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>0.5228571428571429</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>0.1965909090909091</v>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>0.5903451972555747</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>0.5094696969696969</v>
       </c>
     </row>
     <row r="133">
@@ -25895,40 +25895,40 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>0.5594747474747475</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>0.7926767676767676</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>0.4429924242424242</v>
       </c>
       <c r="P133" t="n">
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>0.7143049599771298</v>
       </c>
       <c r="S133" t="n">
-        <v>0</v>
+        <v>0.8224431818181819</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>0.6420454545454545</v>
       </c>
     </row>
     <row r="134">
@@ -25973,40 +25973,40 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>0.5017632734978928</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>0.5076079138083593</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>0.5214015151515151</v>
       </c>
       <c r="P134" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>0.7292813750714695</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>0.8011363636363636</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>0.6344696969696969</v>
       </c>
     </row>
     <row r="135">
@@ -26051,40 +26051,40 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>0.5354480848365382</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>0.5387510398098633</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="P135" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q135" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>0.748497712978845</v>
       </c>
       <c r="S135" t="n">
-        <v>0</v>
+        <v>0.834753787878788</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>0.6571969696969697</v>
       </c>
     </row>
     <row r="136">
@@ -26129,40 +26129,40 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>0.5327434507836843</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>0.5254149414838081</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>0.5465909090909091</v>
       </c>
       <c r="P136" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>0.7437700114351058</v>
       </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>0.8503787878787878</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="137">
@@ -26207,40 +26207,40 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>0.5380181365693071</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>0.5349560117302052</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>0.559469696969697</v>
       </c>
       <c r="P137" t="n">
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="R137" t="n">
-        <v>0</v>
+        <v>0.7498334762721556</v>
       </c>
       <c r="S137" t="n">
-        <v>0</v>
+        <v>0.8896780303030303</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>0.672348484848485</v>
       </c>
     </row>
     <row r="138">
@@ -26285,40 +26285,40 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>0.5262751166230515</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>0.5402597402597402</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>0.5344696969696969</v>
       </c>
       <c r="P138" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q138" t="n">
-        <v>0</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>0.7422548599199542</v>
       </c>
       <c r="S138" t="n">
-        <v>0</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>0.5587121212121213</v>
       </c>
     </row>
     <row r="139">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>0.738721006050352</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>0.8533333333333333</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>0.6575342465753425</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>0.663592045109793</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>0.8350378787878789</v>
       </c>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>0.8914025871926816</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>0.9791666666666667</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="140">
@@ -26675,40 +26675,40 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>0.3124730202158383</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>0.4817785700138641</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>0.2335858585858586</v>
       </c>
       <c r="P143" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R143" t="n">
-        <v>0</v>
+        <v>0.6022894034686487</v>
       </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>0.6534090909090909</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>0.5492924528301887</v>
       </c>
     </row>
     <row r="144">
@@ -26753,40 +26753,40 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>0.4519754655347098</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>0.6551724137931033</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>0.5758312655086849</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>0.3931818181818182</v>
       </c>
       <c r="P144" t="n">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="R144" t="n">
-        <v>0</v>
+        <v>0.6799328187535735</v>
       </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>0.7836174242424242</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>0.5511363636363636</v>
       </c>
     </row>
     <row r="145">
@@ -26831,40 +26831,40 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>0.6701751335463945</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>0.8115942028985507</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>0.6875773167096859</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>0.6577651515151515</v>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>0.8107136220697541</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>0.9204545454545454</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>0.7651515151515152</v>
       </c>
     </row>
     <row r="146">
@@ -26909,40 +26909,40 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.2164088808958756</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>0.2453531598513011</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>0.1957186544342507</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>0.1214870973062042</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>0.1398305084745763</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>0.1084745762711864</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>0.5480202973127501</v>
       </c>
       <c r="S146" t="n">
-        <v>0</v>
+        <v>0.615530303030303</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>0.5018939393939394</v>
       </c>
     </row>
     <row r="147">
@@ -26987,40 +26987,40 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>0.2199644559382716</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>0.2568093385214008</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>0.1987577639751553</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>0.1238667473199084</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>0.1473214285714286</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>0.1107266435986159</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147" t="n">
-        <v>0</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>0.5559676958261863</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>0.6382575757575757</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>0.4981060606060606</v>
       </c>
     </row>
     <row r="148">
@@ -27377,40 +27377,40 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>0.4919483204134367</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>0.7778660555131144</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>0.3681818181818182</v>
       </c>
       <c r="P152" t="n">
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="Q152" t="n">
-        <v>0</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="R152" t="n">
-        <v>0</v>
+        <v>0.6776543739279589</v>
       </c>
       <c r="S152" t="n">
-        <v>0</v>
+        <v>0.7286931818181819</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>0.6003787878787878</v>
       </c>
     </row>
     <row r="153">
@@ -27455,40 +27455,40 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>0.5277366353731514</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>0.8073772893772894</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>0.3986742424242425</v>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="Q153" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R153" t="n">
-        <v>0</v>
+        <v>0.6925217981703831</v>
       </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>0.7253787878787878</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>0.6742424242424243</v>
       </c>
     </row>
     <row r="154">
@@ -27533,40 +27533,40 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>0.6076190476190476</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>0.5090909090909091</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>0.8028011204481793</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>0.4903409090909091</v>
       </c>
       <c r="P154" t="n">
-        <v>0</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="Q154" t="n">
-        <v>0</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="R154" t="n">
-        <v>0</v>
+        <v>0.7375989851343625</v>
       </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>0.7821969696969697</v>
       </c>
       <c r="T154" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="155">
@@ -27611,40 +27611,40 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>0.6519911731170811</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>0.7118644067796609</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>0.8542875176826584</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="O155" t="n">
-        <v>0</v>
+        <v>0.5329545454545455</v>
       </c>
       <c r="P155" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q155" t="n">
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>0.7604180960548884</v>
       </c>
       <c r="S155" t="n">
-        <v>0</v>
+        <v>0.8087121212121212</v>
       </c>
       <c r="T155" t="n">
-        <v>0</v>
+        <v>0.7305871212121212</v>
       </c>
     </row>
     <row r="156">
@@ -27689,40 +27689,40 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>0.668488160291439</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.7868852459016394</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>0.8287309182046025</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>0.5640151515151516</v>
       </c>
       <c r="P156" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q156" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R156" t="n">
-        <v>0</v>
+        <v>0.7748177530017152</v>
       </c>
       <c r="S156" t="n">
-        <v>0</v>
+        <v>0.8560606060606062</v>
       </c>
       <c r="T156" t="n">
-        <v>0</v>
+        <v>0.7159090909090909</v>
       </c>
     </row>
     <row r="157">
@@ -27767,40 +27767,40 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>0.6969463869463869</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>0.8206693017127801</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>0.6130681818181818</v>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q157" t="n">
-        <v>0</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="R157" t="n">
-        <v>0</v>
+        <v>0.7978305460263007</v>
       </c>
       <c r="S157" t="n">
-        <v>0</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>0.7481060606060607</v>
       </c>
     </row>
     <row r="158">
@@ -27845,40 +27845,40 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>0.4468039158176739</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>0.2999821013018003</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>0.40625</v>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>0.9204545454545455</v>
       </c>
       <c r="P158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>0.8201772441395084</v>
       </c>
       <c r="S158" t="n">
-        <v>0</v>
+        <v>0.8404356060606062</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>0.7973484848484849</v>
       </c>
     </row>
     <row r="159">
@@ -27923,40 +27923,40 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>0.4848913665512956</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>0.4129032258064516</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>0.3313814691734865</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>0.2601626016260163</v>
       </c>
       <c r="O159" t="n">
-        <v>0</v>
+        <v>0.9327651515151516</v>
       </c>
       <c r="P159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q159" t="n">
-        <v>0</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="R159" t="n">
-        <v>0</v>
+        <v>0.8448845769010864</v>
       </c>
       <c r="S159" t="n">
-        <v>0</v>
+        <v>0.8636363636363638</v>
       </c>
       <c r="T159" t="n">
-        <v>0</v>
+        <v>0.8276515151515151</v>
       </c>
     </row>
     <row r="160">
@@ -28001,40 +28001,40 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>0.601693787078832</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>0.5585585585585585</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>0.4458008324780477</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>0.3924050632911392</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>0.9331439393939395</v>
       </c>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>0.8942920954831333</v>
       </c>
       <c r="S160" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>0.8560606060606062</v>
       </c>
     </row>
     <row r="161">
@@ -28079,40 +28079,40 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>0.6473522661832093</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>0.5454545454545455</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>0.5013689188787445</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>0.9210227272727274</v>
       </c>
       <c r="P161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q161" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="R161" t="n">
-        <v>0</v>
+        <v>0.9026139937106918</v>
       </c>
       <c r="S161" t="n">
-        <v>0</v>
+        <v>0.9526515151515151</v>
       </c>
       <c r="T161" t="n">
-        <v>0</v>
+        <v>0.8352272727272729</v>
       </c>
     </row>
     <row r="162">
@@ -28157,40 +28157,40 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>0.7112484414809996</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>0.5856566632116873</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="O162" t="n">
-        <v>0</v>
+        <v>0.9083333333333334</v>
       </c>
       <c r="P162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q162" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="R162" t="n">
-        <v>0</v>
+        <v>0.9136735277301316</v>
       </c>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>0.9734848484848485</v>
       </c>
       <c r="T162" t="n">
-        <v>0</v>
+        <v>0.8560606060606062</v>
       </c>
     </row>
     <row r="163">
@@ -28235,40 +28235,40 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>0.7184113075679341</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>0.8051948051948051</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>0.5973071895424837</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>0.9020833333333333</v>
       </c>
       <c r="P163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q163" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="R163" t="n">
-        <v>0</v>
+        <v>0.9131957547169811</v>
       </c>
       <c r="S163" t="n">
-        <v>0</v>
+        <v>0.9678030303030303</v>
       </c>
       <c r="T163" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="164">
@@ -28313,40 +28313,40 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>0.6596606581726714</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>0.7567567567567567</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>0.5588235294117646</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>0.5923616244787544</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>0.7484848484848485</v>
       </c>
       <c r="P164" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q164" t="n">
-        <v>0</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>0.8424514008004576</v>
       </c>
       <c r="S164" t="n">
-        <v>0</v>
+        <v>0.8996212121212123</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="165">
@@ -28391,40 +28391,40 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>0.6641026031565005</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>0.5912475260425443</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>0.7611742424242424</v>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="Q165" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R165" t="n">
-        <v>0</v>
+        <v>0.8480413807890222</v>
       </c>
       <c r="S165" t="n">
-        <v>0</v>
+        <v>0.8666273584905662</v>
       </c>
       <c r="T165" t="n">
-        <v>0</v>
+        <v>0.7897727272727273</v>
       </c>
     </row>
     <row r="166">
@@ -28469,40 +28469,40 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>0.6890654641959857</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>0.6448282470883091</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>0.7426136363636363</v>
       </c>
       <c r="P166" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="Q166" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R166" t="n">
-        <v>0</v>
+        <v>0.8455735420240137</v>
       </c>
       <c r="S166" t="n">
-        <v>0</v>
+        <v>0.8617424242424243</v>
       </c>
       <c r="T166" t="n">
-        <v>0</v>
+        <v>0.7992424242424242</v>
       </c>
     </row>
     <row r="167">
@@ -28547,40 +28547,40 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>0.7361210871936528</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>0.6993928382163677</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>0.7793560606060607</v>
       </c>
       <c r="P167" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q167" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R167" t="n">
-        <v>0</v>
+        <v>0.8688618496283592</v>
       </c>
       <c r="S167" t="n">
-        <v>0</v>
+        <v>0.8977272727272728</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>0.8106060606060606</v>
       </c>
     </row>
     <row r="168">
@@ -28625,40 +28625,40 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>0.7321416361416361</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>0.7714285714285714</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>0.7102870813397129</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>0.7613636363636365</v>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q168" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R168" t="n">
-        <v>0</v>
+        <v>0.8613793596340766</v>
       </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>0.9011202830188679</v>
       </c>
       <c r="T168" t="n">
-        <v>0</v>
+        <v>0.7840909090909091</v>
       </c>
     </row>
     <row r="169">
@@ -28703,40 +28703,40 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>0.7643893014000225</v>
       </c>
       <c r="J169" t="n">
-        <v>0</v>
+        <v>0.8358208955223881</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>0.7353843267155961</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>0.7981060606060606</v>
       </c>
       <c r="P169" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q169" t="n">
-        <v>0</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R169" t="n">
-        <v>0</v>
+        <v>0.8812671526586622</v>
       </c>
       <c r="S169" t="n">
-        <v>0</v>
+        <v>0.912878787878788</v>
       </c>
       <c r="T169" t="n">
-        <v>0</v>
+        <v>0.7784090909090909</v>
       </c>
     </row>
     <row r="170">
@@ -28781,40 +28781,40 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>0.7245619013224648</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>0.7348182957393483</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>0.7178030303030303</v>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q170" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>0.842625071469411</v>
       </c>
       <c r="S170" t="n">
-        <v>0</v>
+        <v>0.8712121212121212</v>
       </c>
       <c r="T170" t="n">
-        <v>0</v>
+        <v>0.8143939393939393</v>
       </c>
     </row>
     <row r="171">
@@ -28859,40 +28859,40 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>0.7315246099459534</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>0.7305620723362658</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>0.7361742424242425</v>
       </c>
       <c r="P171" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q171" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R171" t="n">
-        <v>0</v>
+        <v>0.8510545311606634</v>
       </c>
       <c r="S171" t="n">
-        <v>0</v>
+        <v>0.884469696969697</v>
       </c>
       <c r="T171" t="n">
-        <v>0</v>
+        <v>0.8162878787878788</v>
       </c>
     </row>
     <row r="172">
@@ -28937,40 +28937,40 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>0.7467689301699577</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>0.7483676596579822</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>0.7488636363636363</v>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q172" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R172" t="n">
-        <v>0</v>
+        <v>0.8585370211549457</v>
       </c>
       <c r="S172" t="n">
-        <v>0</v>
+        <v>0.8792613636363636</v>
       </c>
       <c r="T172" t="n">
-        <v>0</v>
+        <v>0.8295454545454546</v>
       </c>
     </row>
     <row r="173">
@@ -29015,40 +29015,40 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>0.7495586828419818</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>0.6865671641791046</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>0.7518767507002801</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>0.7488636363636363</v>
       </c>
       <c r="P173" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="Q173" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>0.8589143796455116</v>
       </c>
       <c r="S173" t="n">
-        <v>0</v>
+        <v>0.8811553030303031</v>
       </c>
       <c r="T173" t="n">
-        <v>0</v>
+        <v>0.8276515151515151</v>
       </c>
     </row>
     <row r="174">
@@ -29249,40 +29249,40 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>0.7190272690272691</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>0.7347222222222222</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="O176" t="n">
-        <v>0</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="P176" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q176" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R176" t="n">
-        <v>0</v>
+        <v>0.8365089574995235</v>
       </c>
       <c r="S176" t="n">
-        <v>0</v>
+        <v>0.8599056603773585</v>
       </c>
       <c r="T176" t="n">
-        <v>0</v>
+        <v>0.8143939393939393</v>
       </c>
     </row>
     <row r="177">
@@ -29327,40 +29327,40 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>0.7315246099459534</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>0.7305620723362658</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>0.7361742424242425</v>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q177" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R177" t="n">
-        <v>0</v>
+        <v>0.8510545311606634</v>
       </c>
       <c r="S177" t="n">
-        <v>0</v>
+        <v>0.884469696969697</v>
       </c>
       <c r="T177" t="n">
-        <v>0</v>
+        <v>0.8162878787878788</v>
       </c>
     </row>
     <row r="178">
@@ -29405,40 +29405,40 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>0.7393258519416752</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>0.7450353357374231</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="O178" t="n">
-        <v>0</v>
+        <v>0.7365530303030303</v>
       </c>
       <c r="P178" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="Q178" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R178" t="n">
-        <v>0</v>
+        <v>0.8523817181246427</v>
       </c>
       <c r="S178" t="n">
-        <v>0</v>
+        <v>0.8792613636363636</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>0.8295454545454546</v>
       </c>
     </row>
     <row r="179">
@@ -29483,40 +29483,40 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>0.7453684452189083</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>0.7498809523809524</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>0.7428030303030303</v>
       </c>
       <c r="P179" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="Q179" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R179" t="n">
-        <v>0</v>
+        <v>0.8558855060034306</v>
       </c>
       <c r="S179" t="n">
-        <v>0</v>
+        <v>0.8811553030303031</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>0.8143939393939393</v>
       </c>
     </row>
     <row r="180">
@@ -29561,40 +29561,40 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>0.7583083714984047</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>0.7773593073593074</v>
       </c>
       <c r="M180" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N180" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>0.7426136363636364</v>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q180" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R180" t="n">
-        <v>0</v>
+        <v>0.858062106918239</v>
       </c>
       <c r="S180" t="n">
-        <v>0</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="T180" t="n">
-        <v>0</v>
+        <v>0.8181818181818181</v>
       </c>
     </row>
     <row r="181">
@@ -29639,40 +29639,40 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>0.7766700565431397</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>0.6885245901639345</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>0.7976284076284077</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N181" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O181" t="n">
-        <v>0</v>
+        <v>0.7611742424242425</v>
       </c>
       <c r="P181" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q181" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R181" t="n">
-        <v>0</v>
+        <v>0.8684773441966838</v>
       </c>
       <c r="S181" t="n">
-        <v>0</v>
+        <v>0.9071969696969698</v>
       </c>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>0.8049242424242423</v>
       </c>
     </row>
     <row r="182">
@@ -30185,40 +30185,40 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>0.7245619013224648</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>0.7348182957393483</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>0.7178030303030303</v>
       </c>
       <c r="P188" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q188" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R188" t="n">
-        <v>0</v>
+        <v>0.842625071469411</v>
       </c>
       <c r="S188" t="n">
-        <v>0</v>
+        <v>0.8712121212121212</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>0.8143939393939393</v>
       </c>
     </row>
     <row r="189">
@@ -30263,40 +30263,40 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>0.7315246099459534</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>0.7305620723362658</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="N189" t="n">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>0.7361742424242425</v>
       </c>
       <c r="P189" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q189" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R189" t="n">
-        <v>0</v>
+        <v>0.8510545311606634</v>
       </c>
       <c r="S189" t="n">
-        <v>0</v>
+        <v>0.884469696969697</v>
       </c>
       <c r="T189" t="n">
-        <v>0</v>
+        <v>0.8162878787878788</v>
       </c>
     </row>
     <row r="190">
@@ -30341,40 +30341,40 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>0.7389604202718957</v>
       </c>
       <c r="J190" t="n">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>0.7447930479951352</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="O190" t="n">
-        <v>0</v>
+        <v>0.7365530303030303</v>
       </c>
       <c r="P190" t="n">
-        <v>0</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q190" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>0.8523817181246427</v>
       </c>
       <c r="S190" t="n">
-        <v>0</v>
+        <v>0.8792613636363636</v>
       </c>
       <c r="T190" t="n">
-        <v>0</v>
+        <v>0.8143939393939393</v>
       </c>
     </row>
     <row r="191">
@@ -30419,40 +30419,40 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>0.7516391894001003</v>
       </c>
       <c r="J191" t="n">
-        <v>0</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>0.7559765724471608</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="O191" t="n">
-        <v>0</v>
+        <v>0.7488636363636363</v>
       </c>
       <c r="P191" t="n">
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="Q191" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R191" t="n">
-        <v>0</v>
+        <v>0.8592931675242996</v>
       </c>
       <c r="S191" t="n">
-        <v>0</v>
+        <v>0.8811553030303031</v>
       </c>
       <c r="T191" t="n">
-        <v>0</v>
+        <v>0.8295454545454546</v>
       </c>
     </row>
     <row r="192">
@@ -30497,40 +30497,40 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>0.7685296779697113</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>0.71875</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>0.7851403435274403</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="O192" t="n">
-        <v>0</v>
+        <v>0.7549242424242425</v>
       </c>
       <c r="P192" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="Q192" t="n">
-        <v>0</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="R192" t="n">
-        <v>0</v>
+        <v>0.864594768439108</v>
       </c>
       <c r="S192" t="n">
-        <v>0</v>
+        <v>0.893939393939394</v>
       </c>
       <c r="T192" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="193">
@@ -30575,43 +30575,43 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>0.7832194629610305</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>0.7096774193548386</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>0.8035567497636464</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N193" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="O193" t="n">
-        <v>0</v>
+        <v>0.7672348484848486</v>
       </c>
       <c r="P193" t="n">
-        <v>0</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="Q193" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>0.8718864351057748</v>
       </c>
       <c r="S193" t="n">
-        <v>0</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="T193" t="n">
-        <v>0</v>
+        <v>0.8200757575757576</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>